--- a/static/download/2013/RP1_FLT_EFF_2013.xlsx
+++ b/static/download/2013/RP1_FLT_EFF_2013.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="FLT_EFF_YY" sheetId="1" r:id="rId3"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="47">
   <si>
     <t>Data source</t>
   </si>
@@ -27,6 +27,9 @@
     <t>Meta data</t>
   </si>
   <si>
+    <t>Metadata - Single European Sky Portal</t>
+  </si>
+  <si>
     <t>Release date</t>
   </si>
   <si>
@@ -36,7 +39,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>NSA-PRU-Support@eurocontrol.int</t>
+    <t>pru-support@eurocontrol.int</t>
   </si>
   <si>
     <t>Period: JAN-DEC</t>
@@ -181,8 +184,8 @@
     <font>
       <u/>
       <sz val="9.0"/>
-      <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -267,7 +270,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="22">
+    <border/>
     <border>
       <left/>
       <right/>
@@ -310,6 +314,22 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -378,6 +398,52 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom/>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -402,206 +468,220 @@
   </cellStyleXfs>
   <cellXfs count="72">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="3" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="12" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="3" fontId="12" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="3" fontId="12" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="3" fontId="12" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="3" fontId="12" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="12" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="5" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="12" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="12" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="12" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="12" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="12" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="12" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="8" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="8" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="8" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="3" fontId="8" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="12" fillId="4" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="14" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="3" fontId="8" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="3" fontId="8" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="3" fontId="8" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="20" fillId="3" fontId="8" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="21" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="21" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="14" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,32 +691,35 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.14"/>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="3" max="3" width="10.43"/>
-    <col customWidth="1" min="4" max="4" width="13.43"/>
-    <col customWidth="1" min="5" max="5" width="14.86"/>
-    <col customWidth="1" min="6" max="6" width="13.14"/>
-    <col customWidth="1" min="7" max="7" width="11.86"/>
+    <col customWidth="1" min="1" max="1" width="11.5"/>
+    <col customWidth="1" min="2" max="2" width="15.13"/>
+    <col customWidth="1" min="3" max="3" width="9.13"/>
+    <col customWidth="1" min="4" max="4" width="11.75"/>
+    <col customWidth="1" min="5" max="5" width="13.0"/>
+    <col customWidth="1" min="6" max="6" width="11.5"/>
+    <col customWidth="1" min="7" max="7" width="10.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -655,30 +738,29 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="str">
-        <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/Average_horizontal_en-route_inefficiency","Avg. horizontal en route inefficiency")</f>
-        <v>Avg. horizontal en route inefficiency</v>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="G1" s="5"/>
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="7">
         <v>41670.0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="7">
         <v>41639.0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="9"/>
     </row>
@@ -693,12 +775,12 @@
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="14"/>
       <c r="D4" s="15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
@@ -706,36 +788,36 @@
     </row>
     <row r="5" ht="38.25" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="25">
         <v>0.054172691863278</v>
@@ -750,13 +832,13 @@
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>19</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="30"/>
@@ -769,13 +851,13 @@
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="29"/>
       <c r="E8" s="30"/>
@@ -788,13 +870,13 @@
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="30"/>
@@ -807,13 +889,13 @@
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="30"/>
@@ -826,10 +908,10 @@
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="34"/>
@@ -934,20 +1016,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4.0" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B6" sqref="B6" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.14"/>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="3" max="4" width="10.43"/>
-    <col customWidth="1" min="5" max="5" width="20.29"/>
-    <col customWidth="1" min="6" max="6" width="29.71"/>
+    <col customWidth="1" min="1" max="1" width="11.5"/>
+    <col customWidth="1" min="2" max="2" width="15.13"/>
+    <col customWidth="1" min="3" max="4" width="9.13"/>
+    <col customWidth="1" min="5" max="5" width="17.75"/>
+    <col customWidth="1" min="6" max="6" width="26.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -966,30 +1051,28 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="str">
-        <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/Average_horizontal_en-route_inefficiency","Avg. horizontal en route inefficiency")</f>
-        <v>Avg. horizontal en route inefficiency</v>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="7">
         <v>41670.0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="7">
         <v>41639.0</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="40" t="str">
-        <f>HYPERLINK("mailto:NSA-PRU-Support@eurocontrol.int","NSA-PRU-Support@eurocontrol.int")</f>
-        <v>NSA-PRU-Support@eurocontrol.int</v>
+        <v>7</v>
+      </c>
+      <c r="F2" s="40" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1">
@@ -1002,27 +1085,27 @@
     </row>
     <row r="4" ht="25.5" customHeight="1">
       <c r="A4" s="18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="44">
         <v>2012.0</v>
@@ -1031,7 +1114,7 @@
         <v>40909.0</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="47">
         <v>0.050531871001327</v>
@@ -1042,7 +1125,7 @@
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="44">
         <v>2012.0</v>
@@ -1051,7 +1134,7 @@
         <v>40940.0</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="49">
         <v>0.0513450528062609</v>
@@ -1062,7 +1145,7 @@
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="44">
         <v>2012.0</v>
@@ -1071,7 +1154,7 @@
         <v>40969.0</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="49">
         <v>0.0508380146586</v>
@@ -1082,7 +1165,7 @@
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="44">
         <v>2012.0</v>
@@ -1091,7 +1174,7 @@
         <v>41000.0</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="49">
         <v>0.0518025914175409</v>
@@ -1102,7 +1185,7 @@
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="44">
         <v>2012.0</v>
@@ -1111,7 +1194,7 @@
         <v>41030.0</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="49">
         <v>0.0517124401193619</v>
@@ -1122,7 +1205,7 @@
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="44">
         <v>2012.0</v>
@@ -1131,7 +1214,7 @@
         <v>41061.0</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="49">
         <v>0.0517065082490889</v>
@@ -1142,7 +1225,7 @@
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="44">
         <v>2012.0</v>
@@ -1151,7 +1234,7 @@
         <v>41091.0</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="49">
         <v>0.051380890960046</v>
@@ -1162,7 +1245,7 @@
     </row>
     <row r="12" ht="12.0" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="44">
         <v>2012.0</v>
@@ -1171,7 +1254,7 @@
         <v>41122.0</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="49">
         <v>0.050507304398966</v>
@@ -1182,7 +1265,7 @@
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="44">
         <v>2012.0</v>
@@ -1191,7 +1274,7 @@
         <v>41153.0</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="49">
         <v>0.0530087126257089</v>
@@ -1202,7 +1285,7 @@
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="44">
         <v>2012.0</v>
@@ -1211,7 +1294,7 @@
         <v>41183.0</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="49">
         <v>0.051379127868277</v>
@@ -1222,7 +1305,7 @@
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="44">
         <v>2012.0</v>
@@ -1231,7 +1314,7 @@
         <v>41214.0</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" s="49">
         <v>0.0529699464235059</v>
@@ -1242,7 +1325,7 @@
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="51">
         <v>2012.0</v>
@@ -1251,7 +1334,7 @@
         <v>41244.0</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" s="54">
         <v>0.051181625909877</v>
@@ -1262,7 +1345,7 @@
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="57">
         <v>2013.0</v>
@@ -1271,7 +1354,7 @@
         <v>41275.0</v>
       </c>
       <c r="D17" s="59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="49">
         <v>0.0510288546908279</v>
@@ -1282,7 +1365,7 @@
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="44">
         <v>2013.0</v>
@@ -1291,7 +1374,7 @@
         <v>41306.0</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" s="49">
         <v>0.051624905951971</v>
@@ -1302,7 +1385,7 @@
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="A19" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="44">
         <v>2013.0</v>
@@ -1311,7 +1394,7 @@
         <v>41334.0</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19" s="49">
         <v>0.04994965608297</v>
@@ -1322,7 +1405,7 @@
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="A20" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="44">
         <v>2013.0</v>
@@ -1331,7 +1414,7 @@
         <v>41365.0</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" s="49">
         <v>0.050682012285024</v>
@@ -1342,7 +1425,7 @@
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="44">
         <v>2013.0</v>
@@ -1351,7 +1434,7 @@
         <v>41395.0</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" s="49">
         <v>0.052245749981116</v>
@@ -1362,7 +1445,7 @@
     </row>
     <row r="22" ht="12.0" customHeight="1">
       <c r="A22" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="44">
         <v>2013.0</v>
@@ -1371,7 +1454,7 @@
         <v>41426.0</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E22" s="49">
         <v>0.053107405602198</v>
@@ -1382,7 +1465,7 @@
     </row>
     <row r="23" ht="12.0" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" s="44">
         <v>2013.0</v>
@@ -1391,7 +1474,7 @@
         <v>41456.0</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E23" s="49">
         <v>0.051320344975416</v>
@@ -1402,7 +1485,7 @@
     </row>
     <row r="24" ht="12.0" customHeight="1">
       <c r="A24" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" s="44">
         <v>2013.0</v>
@@ -1411,7 +1494,7 @@
         <v>41487.0</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E24" s="49">
         <v>0.050091919300533</v>
@@ -1422,7 +1505,7 @@
     </row>
     <row r="25" ht="12.0" customHeight="1">
       <c r="A25" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" s="44">
         <v>2013.0</v>
@@ -1431,7 +1514,7 @@
         <v>41518.0</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E25" s="49">
         <v>0.0518165830429049</v>
@@ -1442,7 +1525,7 @@
     </row>
     <row r="26" ht="12.0" customHeight="1">
       <c r="A26" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" s="44">
         <v>2013.0</v>
@@ -1451,7 +1534,7 @@
         <v>41548.0</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E26" s="49">
         <v>0.0516119999999999</v>
@@ -1462,7 +1545,7 @@
     </row>
     <row r="27" ht="12.0" customHeight="1">
       <c r="A27" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="44">
         <v>2013.0</v>
@@ -1471,7 +1554,7 @@
         <v>41579.0</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E27" s="49">
         <v>0.0495779999999999</v>
@@ -1482,7 +1565,7 @@
     </row>
     <row r="28" ht="13.5" customHeight="1">
       <c r="A28" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" s="51">
         <v>2013.0</v>
@@ -1491,7 +1574,7 @@
         <v>41609.0</v>
       </c>
       <c r="D28" s="53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E28" s="54">
         <v>0.049209</v>
@@ -1502,7 +1585,7 @@
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="A29" s="56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B29" s="57">
         <v>2014.0</v>
@@ -1511,14 +1594,14 @@
         <v>41640.0</v>
       </c>
       <c r="D29" s="59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E29" s="49"/>
       <c r="F29" s="50"/>
     </row>
     <row r="30" ht="12.0" customHeight="1">
       <c r="A30" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" s="44">
         <v>2014.0</v>
@@ -1527,14 +1610,14 @@
         <v>41671.0</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E30" s="49"/>
       <c r="F30" s="50"/>
     </row>
     <row r="31" ht="12.0" customHeight="1">
       <c r="A31" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B31" s="44">
         <v>2014.0</v>
@@ -1543,14 +1626,14 @@
         <v>41699.0</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E31" s="49"/>
       <c r="F31" s="50"/>
     </row>
     <row r="32" ht="12.0" customHeight="1">
       <c r="A32" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B32" s="44">
         <v>2014.0</v>
@@ -1559,14 +1642,14 @@
         <v>41730.0</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E32" s="49"/>
       <c r="F32" s="50"/>
     </row>
     <row r="33" ht="12.0" customHeight="1">
       <c r="A33" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33" s="44">
         <v>2014.0</v>
@@ -1575,14 +1658,14 @@
         <v>41760.0</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E33" s="49"/>
       <c r="F33" s="50"/>
     </row>
     <row r="34" ht="12.0" customHeight="1">
       <c r="A34" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34" s="44">
         <v>2014.0</v>
@@ -1591,14 +1674,14 @@
         <v>41791.0</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E34" s="49"/>
       <c r="F34" s="50"/>
     </row>
     <row r="35" ht="12.0" customHeight="1">
       <c r="A35" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" s="44">
         <v>2014.0</v>
@@ -1607,14 +1690,14 @@
         <v>41821.0</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E35" s="60"/>
       <c r="F35" s="61"/>
     </row>
     <row r="36" ht="12.0" customHeight="1">
       <c r="A36" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" s="44">
         <v>2014.0</v>
@@ -1623,14 +1706,14 @@
         <v>41852.0</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E36" s="60"/>
       <c r="F36" s="61"/>
     </row>
     <row r="37" ht="12.0" customHeight="1">
       <c r="A37" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B37" s="44">
         <v>2014.0</v>
@@ -1639,14 +1722,14 @@
         <v>41883.0</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E37" s="60"/>
       <c r="F37" s="61"/>
     </row>
     <row r="38" ht="12.0" customHeight="1">
       <c r="A38" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B38" s="44">
         <v>2014.0</v>
@@ -1655,14 +1738,14 @@
         <v>41913.0</v>
       </c>
       <c r="D38" s="46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E38" s="60"/>
       <c r="F38" s="61"/>
     </row>
     <row r="39" ht="12.0" customHeight="1">
       <c r="A39" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B39" s="44">
         <v>2014.0</v>
@@ -1671,14 +1754,14 @@
         <v>41944.0</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E39" s="60"/>
       <c r="F39" s="61"/>
     </row>
     <row r="40" ht="12.0" customHeight="1">
       <c r="A40" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B40" s="51">
         <v>2014.0</v>
@@ -1687,7 +1770,7 @@
         <v>41974.0</v>
       </c>
       <c r="D40" s="53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E40" s="62"/>
       <c r="F40" s="63"/>
@@ -1695,38 +1778,40 @@
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F1"/>
-    <hyperlink r:id="rId2" ref="F2"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.57"/>
-    <col customWidth="1" min="2" max="2" width="12.14"/>
-    <col customWidth="1" min="3" max="3" width="11.86"/>
-    <col customWidth="1" min="4" max="4" width="113.57"/>
-    <col customWidth="1" min="5" max="6" width="8.71"/>
+    <col customWidth="1" min="1" max="1" width="9.25"/>
+    <col customWidth="1" min="2" max="2" width="10.63"/>
+    <col customWidth="1" min="3" max="3" width="10.38"/>
+    <col customWidth="1" min="4" max="4" width="99.38"/>
+    <col customWidth="1" min="5" max="6" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
@@ -1734,13 +1819,13 @@
         <v>41410.0</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
